--- a/report/input/web_west.xlsx
+++ b/report/input/web_west.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="8.424285714285716"/>
     <col customWidth="1" max="2" min="2" width="9.424285714285713"/>
-    <col customWidth="1" max="3" min="3" width="17.28142857142857"/>
+    <col customWidth="1" max="3" min="3" width="20.56714285714286"/>
     <col customWidth="1" max="4" min="4" width="8.710000000000001"/>
     <col customWidth="1" max="5" min="5" width="12.99571428571429"/>
     <col customWidth="1" max="6" min="6" width="6.424285714285715"/>
@@ -583,200 +583,196 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1600958</v>
+        <v>61004365</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Col Active Salt 100g</t>
+          <t>CMF Red 450g</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2880</v>
+        <v>68</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="5">
       <c r="A5" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>61004317</v>
+        <v>61015028</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>CDC 500 saver</t>
+          <t>EC PO6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="6">
       <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>TH03374A</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>61016528</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Coconut BW 250 ml</t>
+          <t>CC 120g+Garnier</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>60</v>
+        <v>678</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>TR02245A</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>61018325</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Massage BW 750 ml</t>
+          <t>BW Inv 750+ Enr 250</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="8">
       <c r="A8" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>61004365</v>
+        <v>61018325</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>CMF Red 450g</t>
+          <t>BW Inv 750+ Enr 250</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>68</v>
+        <v>174</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="9">
       <c r="A9" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>61015028</v>
+        <v>61018325</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EC PO6</t>
+          <t>BW Inv 750+ Enr 250</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -795,25 +791,27 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>330</v>
+        <v>140</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="10">
       <c r="A10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>61015028</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>in01040a</t>
+        </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>EC PO6</t>
+          <t>Kids 18g (2-5 yrs)</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -832,50 +830,52 @@
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>222</v>
+        <v>1008</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="11">
       <c r="A11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>61015028</v>
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IN01040A</t>
+        </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EC PO6</t>
+          <t>Kids 18g (2-5 yrs)</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>90</v>
+        <v>2280</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="12">
@@ -883,11 +883,11 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>61016528</v>
+        <v>1611452</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>CC 120g+Garnier</t>
+          <t>Maxfresh 80 Blue</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -906,13 +906,13 @@
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>318</v>
+        <v>125</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1908</v>
+        <v>1000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="13">
@@ -920,11 +920,11 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>61016528</v>
+        <v>1611452</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>CC 120g+Garnier</t>
+          <t>Maxfresh 80 Blue</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>678</v>
+        <v>1504</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="14">
@@ -957,11 +957,11 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>61016528</v>
+        <v>1611452</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>CC 120g+Garnier</t>
+          <t>Maxfresh 80 Blue</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -980,66 +980,62 @@
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="15">
       <c r="A15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>IN01142A</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>61002431</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Total 120+65</t>
+          <t>VW Radiant White 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>129</v>
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="16">
       <c r="A16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>IN01282A</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>61002431</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Charcoal Clean 120g</t>
+          <t>VW Radiant White 100</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1058,13 +1054,13 @@
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="17">
@@ -1072,36 +1068,884 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="n">
+        <v>61011382</v>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>CAS 500 30 rs off</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IN01040A</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Kids 18g (2-5 yrs)</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>East Hub</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>in01282a</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Charcoal Clean 120g</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>in01282a</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Charcoal Clean 120g</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>IN95</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>HASANGARH</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I02</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>656</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="21">
+      <c r="A21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>TH03760A</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>BW Sens.750 ml</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>IN95</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>HASANGARH</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>I02</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="22">
+      <c r="A22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>TH02584A</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Plax Vedshakthi 250m</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>IN95</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>HASANGARH</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>I02</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="23">
+      <c r="A23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>61005239</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Col CDC 18gm Sleeve</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>IN84</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>RAIPUR</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>I01</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>525</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>12600</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="24">
+      <c r="A24" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IN00984A</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>COL PLAX FM 250 BOGO</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>IN95</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>HASANGARH</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>I02</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>2188</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>2188</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="25">
+      <c r="A25" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>IN00984A</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>COL PLAX FM 250 BOGO</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>1071</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>1071</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="26">
+      <c r="A26" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>IN00984A</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>COL PLAX FM 250 BOGO</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>IN97</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>HUBLI DC</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>3944</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>3944</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="27">
+      <c r="A27" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>IN00985A</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>COL PLAX FT 250 BOGO</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>IN95</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>HASANGARH</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I02</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>1071</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>1071</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="28">
+      <c r="A28" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>IN00985A</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>COL PLAX FT 250 BOGO</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>428</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>428</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="29">
+      <c r="A29" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>IN00985A</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>COL PLAX FT 250 BOGO</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>IN97</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>HUBLI DC</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>1716</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>1716</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="30">
+      <c r="A30" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>IN00983A</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>COL PLAX PM 250 BOGO</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>IN95</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>HASANGARH</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I02</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>1866</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="31">
+      <c r="A31" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>IN00983A</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>COL PLAX PM 250 BOGO</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>877</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>877</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="32">
+      <c r="A32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>IN00983A</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>COL PLAX PM 250 BOGO</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>IN97</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>HUBLI DC</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>3762</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>3762</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="33">
+      <c r="A33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>1600908</v>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Col Active salt 200g</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>IN97</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>HUBLI DC</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="34">
+      <c r="A34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>61004317</v>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>CDC 500 saver</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="35">
+      <c r="A35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>61004317</v>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>CDC 500 saver</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>IN97</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>HUBLI DC</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="36">
+      <c r="A36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>IN00761A</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Tot Charcoal 120</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="37">
+      <c r="A37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>IN00806A</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Colgate Panch 200g</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>IN97</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>HUBLI DC</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="38">
+      <c r="A38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="n">
         <v>61013471</v>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>CDC 800 New</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>IN97</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>HUBLI DC</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
         <is>
           <t>I04</t>
         </is>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G38" s="2" t="n">
         <v>525</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2" t="n">
+      <c r="H38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2" t="n">
         <v>525</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="39">
+      <c r="A39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>IN01250A</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>CMF 70g+20% Extra</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>IN97</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>HUBLI DC</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>375</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/report/input/web_west.xlsx
+++ b/report/input/web_west.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="8.424285714285716"/>
-    <col customWidth="1" max="2" min="2" width="9.424285714285713"/>
+    <col customWidth="1" max="2" min="2" width="9.138571428571428"/>
     <col customWidth="1" max="3" min="3" width="20.56714285714286"/>
     <col customWidth="1" max="4" min="4" width="8.710000000000001"/>
     <col customWidth="1" max="5" min="5" width="12.99571428571429"/>
@@ -583,11 +583,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>61004365</v>
+        <v>61011382</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>CMF Red 450g</t>
+          <t>CAS 500 30 rs off</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -606,62 +606,66 @@
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="5">
       <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>61015028</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IN00984A</t>
+        </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>EC PO6</t>
+          <t>COL PLAX FM 250 BOGO</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30</v>
+        <v>2188</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>90</v>
+        <v>2188</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="6">
       <c r="A6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>61016528</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IN00984A</t>
+        </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>CC 120g+Garnier</t>
+          <t>COL PLAX FM 250 BOGO</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -680,138 +684,144 @@
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>113</v>
+        <v>1071</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>678</v>
+        <v>1071</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="7">
       <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>61018325</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>IN00984A</t>
+        </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>BW Inv 750+ Enr 250</t>
+          <t>COL PLAX FM 250 BOGO</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>47</v>
+        <v>3944</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>47</v>
+        <v>3944</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="8">
       <c r="A8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>61018325</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IN00985A</t>
+        </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>BW Inv 750+ Enr 250</t>
+          <t>COL PLAX FT 250 BOGO</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>174</v>
+        <v>1071</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>174</v>
+        <v>1071</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="9">
       <c r="A9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>61018325</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IN00985A</t>
+        </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>BW Inv 750+ Enr 250</t>
+          <t>COL PLAX FT 250 BOGO</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>140</v>
+        <v>428</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>140</v>
+        <v>428</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="10">
       <c r="A10" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>in01040a</t>
+          <t>IN00985A</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Kids 18g (2-5 yrs)</t>
+          <t>COL PLAX FT 250 BOGO</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -821,7 +831,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Hubli DC</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -830,27 +840,27 @@
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>42</v>
+        <v>1716</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1008</v>
+        <v>1716</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="11">
       <c r="A11" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>IN01040A</t>
+          <t>IN00983A</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Kids 18g (2-5 yrs)</t>
+          <t>COL PLAX PM 250 BOGO</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -869,87 +879,91 @@
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>95</v>
+        <v>1866</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>2280</v>
+        <v>1866</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="12">
       <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>1611452</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IN00983A</t>
+        </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Maxfresh 80 Blue</t>
+          <t>COL PLAX PM 250 BOGO</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>125</v>
+        <v>877</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1000</v>
+        <v>877</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="13">
       <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>1611452</v>
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>IN00983A</t>
+        </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Maxfresh 80 Blue</t>
+          <t>COL PLAX PM 250 BOGO</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>188</v>
+        <v>3762</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>1504</v>
+        <v>3762</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="14">
@@ -957,36 +971,36 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1611452</v>
+        <v>61004317</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Maxfresh 80 Blue</t>
+          <t>CDC 500 saver</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>125</v>
+        <v>600</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="15">
@@ -994,36 +1008,36 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>61002431</v>
+        <v>61004317</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>VW Radiant White 100</t>
+          <t>CDC 500 saver</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="16">
@@ -1031,36 +1045,36 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>61002431</v>
+        <v>61002401</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>VW Radiant White 100</t>
+          <t>CMF BLUE 300</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="17">
@@ -1068,884 +1082,184 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>61011382</v>
+        <v>61002401</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>CAS 500 30 rs off</t>
+          <t>CMF BLUE 300</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>16</v>
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="18">
       <c r="A18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>IN01040A</t>
-        </is>
+      <c r="B18" s="2" t="n">
+        <v>61004317</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Kids 18g (2-5 yrs)</t>
+          <t>CDC 500 saver</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>East Hub</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>192</v>
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="19">
       <c r="A19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>in01282a</t>
-        </is>
+      <c r="B19" s="2" t="n">
+        <v>61010325</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Charcoal Clean 120g</t>
+          <t>Colgate Visible Whit</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="20">
       <c r="A20" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>in01282a</t>
-        </is>
+      <c r="B20" s="2" t="n">
+        <v>61007352</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Charcoal Clean 120g</t>
+          <t>Charcoal 480</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>656</v>
+        <v>56</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="21">
       <c r="A21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>TH03760A</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>61013471</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>BW Sens.750 ml</t>
+          <t>CDC 800 New</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>20</v>
+        <v>525</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="22">
-      <c r="A22" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>TH02584A</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>Plax Vedshakthi 250m</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>IN95</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>HASANGARH</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>I02</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="23">
-      <c r="A23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>61005239</v>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>Col CDC 18gm Sleeve</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>IN84</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>RAIPUR</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>I01</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="n">
         <v>525</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>12600</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="24">
-      <c r="A24" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>IN00984A</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>COL PLAX FM 250 BOGO</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>IN95</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>HASANGARH</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>I02</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>2188</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>2188</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="25">
-      <c r="A25" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>IN00984A</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>COL PLAX FM 250 BOGO</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>IN98</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>EAST HUB</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>I03</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>1071</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>1071</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="26">
-      <c r="A26" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>IN00984A</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>COL PLAX FM 250 BOGO</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>IN97</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>HUBLI DC</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>I04</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>3944</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>3944</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="27">
-      <c r="A27" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>IN00985A</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>COL PLAX FT 250 BOGO</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>IN95</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>HASANGARH</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I02</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>1071</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>1071</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="28">
-      <c r="A28" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>IN00985A</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>COL PLAX FT 250 BOGO</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>IN98</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>EAST HUB</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I03</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>428</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>428</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="29">
-      <c r="A29" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>IN00985A</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>COL PLAX FT 250 BOGO</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>IN97</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>HUBLI DC</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I04</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>1716</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>1716</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="30">
-      <c r="A30" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>IN00983A</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>COL PLAX PM 250 BOGO</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>IN95</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>HASANGARH</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I02</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>1866</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>1866</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="31">
-      <c r="A31" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>IN00983A</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>COL PLAX PM 250 BOGO</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>IN98</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>EAST HUB</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>I03</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>877</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>877</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="32">
-      <c r="A32" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>IN00983A</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>COL PLAX PM 250 BOGO</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>IN97</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>HUBLI DC</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>I04</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>3762</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>3762</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="33">
-      <c r="A33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>1600908</v>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Col Active salt 200g</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>IN97</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>HUBLI DC</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>I04</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="34">
-      <c r="A34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>61004317</v>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>CDC 500 saver</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>IN98</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>EAST HUB</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>I03</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="35">
-      <c r="A35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>61004317</v>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>CDC 500 saver</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>IN97</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>HUBLI DC</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>I04</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="36">
-      <c r="A36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>IN00761A</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>Tot Charcoal 120</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>IN98</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>EAST HUB</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>I03</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="37">
-      <c r="A37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>IN00806A</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>Colgate Panch 200g</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>IN97</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>HUBLI DC</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>I04</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="38">
-      <c r="A38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>61013471</v>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>CDC 800 New</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>IN97</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>HUBLI DC</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>I04</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>525</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>525</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="39">
-      <c r="A39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>IN01250A</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>CMF 70g+20% Extra</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>IN97</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>HUBLI DC</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>I04</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>375</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/report/input/web_west.xlsx
+++ b/report/input/web_west.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="8.424285714285716"/>
-    <col customWidth="1" max="2" min="2" width="9.138571428571428"/>
+    <col customWidth="1" max="2" min="2" width="9.424285714285713"/>
     <col customWidth="1" max="3" min="3" width="20.56714285714286"/>
     <col customWidth="1" max="4" min="4" width="8.710000000000001"/>
     <col customWidth="1" max="5" min="5" width="12.99571428571429"/>
@@ -580,39 +580,41 @@
     </row>
     <row customHeight="1" ht="15.5" r="4">
       <c r="A4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>61011382</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>IN00984A</t>
+        </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>CAS 500 30 rs off</t>
+          <t>COL PLAX FM 250 BOGO</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8</v>
+        <v>1308</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>16</v>
+        <v>1308</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="5">
@@ -631,27 +633,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2188</v>
+        <v>671</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>2188</v>
+        <v>671</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="6">
@@ -670,27 +672,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1071</v>
+        <v>3744</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1071</v>
+        <v>3744</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="7">
@@ -699,37 +701,37 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>IN00984A</t>
+          <t>IN00985A</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>COL PLAX FM 250 BOGO</t>
+          <t>COL PLAX FT 250 BOGO</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3944</v>
+        <v>1071</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>3944</v>
+        <v>1071</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="8">
@@ -748,27 +750,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1071</v>
+        <v>428</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1071</v>
+        <v>428</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="9">
@@ -787,27 +789,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>428</v>
+        <v>1716</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>428</v>
+        <v>1716</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="10">
@@ -816,37 +818,37 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>IN00985A</t>
+          <t>IN00983A</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>COL PLAX FT 250 BOGO</t>
+          <t>COL PLAX PM 250 BOGO</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1716</v>
+        <v>986</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1716</v>
+        <v>986</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="11">
@@ -865,27 +867,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1866</v>
+        <v>477</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1866</v>
+        <v>477</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="12">
@@ -904,66 +906,64 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>877</v>
+        <v>3682</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>877</v>
+        <v>3682</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="13">
       <c r="A13" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>IN00983A</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>61004317</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>COL PLAX PM 250 BOGO</t>
+          <t>CDC 500 saver</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3762</v>
+        <v>400</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>3762</v>
+        <v>800</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="14">
@@ -980,285 +980,371 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="15">
       <c r="A15" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>61004317</v>
+        <v>61016849</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>CDC 500 saver</t>
+          <t>LHW SM 150 B2G1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="16">
       <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>61002401</v>
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>TH01927A</t>
+        </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>CMF BLUE 300</t>
+          <t>LHW Foam L&amp;m 500 ml</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="17">
       <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>61002401</v>
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>TH03425A</t>
+        </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>CMF BLUE 300</t>
+          <t>Lum oil Rej.250 ml</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>600</v>
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="18">
       <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>61004317</v>
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>TH03425A</t>
+        </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>CDC 500 saver</t>
+          <t>Lum oil Rej.250 ml</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="19">
       <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>61010325</v>
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>TH03760A</t>
+        </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Colgate Visible Whit</t>
+          <t>BW Sens.750 ml</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="20">
       <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>61007352</v>
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>TR02125A</t>
+        </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Charcoal 480</t>
+          <t>Massgae BW New</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>56</v>
+        <v>200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="21">
       <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>TR02245A</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Massage BW 750 ml</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>IN95</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>HASANGARH</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>I02</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="22">
+      <c r="A22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>61005676</v>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Lum BW  Reg 750ml</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>IN95</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>HASANGARH</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>I02</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="23">
+      <c r="A23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="n">
         <v>61013471</v>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>CDC 800 New</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>IN97</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>HUBLI DC</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>I04</t>
         </is>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G23" s="2" t="n">
         <v>525</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2" t="n">
+      <c r="H23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="n">
         <v>525</v>
       </c>
     </row>

--- a/report/input/web_west.xlsx
+++ b/report/input/web_west.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>477</v>
+        <v>157</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>477</v>
+        <v>157</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="12">
@@ -943,39 +943,39 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="14">
       <c r="A14" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>61004317</v>
+        <v>61016849</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>CDC 500 saver</t>
+          <t>LHW SM 150 B2G1</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -994,25 +994,27 @@
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="15">
       <c r="A15" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>61016849</v>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>TH01927A</t>
+        </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>LHW SM 150 B2G1</t>
+          <t>LHW Foam L&amp;m 500 ml</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1031,13 +1033,13 @@
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="16">
@@ -1046,12 +1048,12 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>TH01927A</t>
+          <t>TH03425A</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>LHW Foam L&amp;m 500 ml</t>
+          <t>Lum oil Rej.250 ml</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1070,13 +1072,13 @@
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="17">
@@ -1095,27 +1097,27 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="18">
@@ -1124,37 +1126,37 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>TH03425A</t>
+          <t>TH03760A</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Lum oil Rej.250 ml</t>
+          <t>BW Sens.750 ml</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN95</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>HASANGARH</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="19">
@@ -1163,12 +1165,12 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>TH03760A</t>
+          <t>TR02125A</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>BW Sens.750 ml</t>
+          <t>Massgae BW New</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1187,13 +1189,13 @@
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="20">
@@ -1202,12 +1204,12 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>TR02125A</t>
+          <t>TR02245A</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Massgae BW New</t>
+          <t>Massage BW 750 ml</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1226,27 +1228,25 @@
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="21">
       <c r="A21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>TR02245A</t>
-        </is>
+      <c r="B21" s="2" t="n">
+        <v>61005676</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Massage BW 750 ml</t>
+          <t>Lum BW  Reg 750ml</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1265,50 +1265,50 @@
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="22">
       <c r="A22" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>61005676</v>
+        <v>61007070</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Lum BW  Reg 750ml</t>
+          <t>SVS 800 RGM</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>IN95</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>HASANGARH</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>I02</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="23">
@@ -1316,35 +1316,109 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="n">
+        <v>1611452</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Maxfresh 80 Blue</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>2096</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="24">
+      <c r="A24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>61010241</v>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>CDC 12 gm</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>IN72</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>GUWAHATI</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>2976</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="25">
+      <c r="A25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="n">
         <v>61013471</v>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>CDC 800 New</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>IN97</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>HUBLI DC</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>I04</t>
         </is>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G25" s="2" t="n">
         <v>525</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2" t="n">
+      <c r="H25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="n">
         <v>525</v>
       </c>
     </row>
